--- a/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
+++ b/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyoga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF928D-E8B8-449E-BD6A-76C0E8D3370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4068C7E-C642-41E7-B16E-1A036A783E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Status" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Migration Plan " sheetId="5" r:id="rId3"/>
     <sheet name="SSIS_Scripts" sheetId="2" r:id="rId4"/>
     <sheet name="SSIS_SQLUpdates_in_Packages" sheetId="3" r:id="rId5"/>
+    <sheet name="Delta Migration" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="540">
   <si>
     <t>SSIS Package Name</t>
   </si>
@@ -1495,9 +1496,6 @@
     <t>Migrate Delta Data to MAS 8.7 DB2</t>
   </si>
   <si>
-    <t>Do Full Migration (Dec Data) to DB2 Staging</t>
-  </si>
-  <si>
     <t>Check for Delta Data between DB2 Staging (Dec) and MAS 8.7 (Oct)</t>
   </si>
   <si>
@@ -1605,6 +1603,267 @@
   </si>
   <si>
     <t>Restore Iteration1 MAS DB Backup (Make sure configuration changes during Parallel Run ARE carried over)</t>
+  </si>
+  <si>
+    <t>EQP_DEFR</t>
+  </si>
+  <si>
+    <t>EQP_TOPO</t>
+  </si>
+  <si>
+    <t>Delta?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Delta Strategy</t>
+  </si>
+  <si>
+    <t>Add-Update-Delete</t>
+  </si>
+  <si>
+    <t>Truncate-Insert</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Ref to ASSET</t>
+  </si>
+  <si>
+    <t>Ref to assetspec</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ref to Workorder</t>
+  </si>
+  <si>
+    <t>Ref to Workorder. Ref to Ticket</t>
+  </si>
+  <si>
+    <t>Coswin Tables</t>
+  </si>
+  <si>
+    <t>MAX Tables</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>ASSETLOCUSERCUST</t>
+  </si>
+  <si>
+    <t>ASSETMETER</t>
+  </si>
+  <si>
+    <t>EQP_METER</t>
+  </si>
+  <si>
+    <t>STE_CSWNASSETSLHIST</t>
+  </si>
+  <si>
+    <t>EQP_SRL</t>
+  </si>
+  <si>
+    <t>ASSETTRANS</t>
+  </si>
+  <si>
+    <t>EQP_MOVE</t>
+  </si>
+  <si>
+    <t>ASSETSPEC</t>
+  </si>
+  <si>
+    <t>EQP_TECH</t>
+  </si>
+  <si>
+    <t>SPAREPART</t>
+  </si>
+  <si>
+    <t>EQP_SPARE</t>
+  </si>
+  <si>
+    <t>ROUTESTOP</t>
+  </si>
+  <si>
+    <t>EQP_GROUP</t>
+  </si>
+  <si>
+    <t>ASSETANCESTOR</t>
+  </si>
+  <si>
+    <t>ASSETWORKZONE</t>
+  </si>
+  <si>
+    <t>TLOAMASSETGRP</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>INVVENDOR</t>
+  </si>
+  <si>
+    <t>INVBALANCES</t>
+  </si>
+  <si>
+    <t>STORES_ITEMS</t>
+  </si>
+  <si>
+    <t>SUPL_ITEMS</t>
+  </si>
+  <si>
+    <t>LOCATION_</t>
+  </si>
+  <si>
+    <t>INVCOST</t>
+  </si>
+  <si>
+    <t>MATUSETRANS</t>
+  </si>
+  <si>
+    <t>ISS_ITEMS</t>
+  </si>
+  <si>
+    <t>CONTRACT
+CONTRACTLINE</t>
+  </si>
+  <si>
+    <t>MR, 
+MRLINE</t>
+  </si>
+  <si>
+    <t>DEM_ISS, 
+DEM_ITEMS</t>
+  </si>
+  <si>
+    <t>SUPP_AGREE,
+SUPL_AGREE_ITEM</t>
+  </si>
+  <si>
+    <t>PORDER_ ,
+PO_ITEMS</t>
+  </si>
+  <si>
+    <t>PREQUEST,
+PR_ITEMS</t>
+  </si>
+  <si>
+    <t>RFQ,
+RFQLINE</t>
+  </si>
+  <si>
+    <t>RFQVENDOR,
+QUOTATIONLINE</t>
+  </si>
+  <si>
+    <t>INVOICE,
+INVOICELINE,
+INVOICECOST</t>
+  </si>
+  <si>
+    <t>WPLABOR,
+WPMATERIAL</t>
+  </si>
+  <si>
+    <t>DEVIS,
+DV_ITEMS</t>
+  </si>
+  <si>
+    <t>PORDER_,
+PO_ITEMS</t>
+  </si>
+  <si>
+    <t>INVOICE_,
+NEG_INV,
+INV_ITEMS</t>
+  </si>
+  <si>
+    <t>No package for Inventory_MATUSETRANS?</t>
+  </si>
+  <si>
+    <t>MATRECTRANS</t>
+  </si>
+  <si>
+    <t>RCT_ITEMS</t>
+  </si>
+  <si>
+    <t>CONTRACTPURCH</t>
+  </si>
+  <si>
+    <t>SUPP_AGREE,
+PORDER_</t>
+  </si>
+  <si>
+    <t>WORKORDER</t>
+  </si>
+  <si>
+    <t>WIP_WA</t>
+  </si>
+  <si>
+    <t>WIP_WO,
+WIP_WA</t>
+  </si>
+  <si>
+    <t>WOACTIVITY</t>
+  </si>
+  <si>
+    <t>LABTRANS</t>
+  </si>
+  <si>
+    <t>WIP_WE</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>EQP_JOBR</t>
+  </si>
+  <si>
+    <t>FAILUREREPORT</t>
+  </si>
+  <si>
+    <t>WIP_WO,
+EQP_JOBR</t>
+  </si>
+  <si>
+    <t>RELATEDRECORD (SQL)</t>
+  </si>
+  <si>
+    <t>PR,
+PRLINE,
+PRCOST (SQL)</t>
+  </si>
+  <si>
+    <t>PO,
+POLINE,
+POCOST (SQL)</t>
+  </si>
+  <si>
+    <t>WIP_WT,
+ISS_ITEMS</t>
+  </si>
+  <si>
+    <t>Add-Update-Delete
+Truncate-Insert (PRCOST)</t>
+  </si>
+  <si>
+    <t>Add-Update-Delete
+Truncate-Insert (POCOST)</t>
+  </si>
+  <si>
+    <t>Do Full Migration (Dec Data) to DB2 Staging:
+- Create MAXIMO schema copy
+- Restore schema copy to schema MIGRATION01
+- Run Migration SSIS to MIGRATION01 schema
+- Run Update SQL from MIGRATION01 schema to MAXIMO schema</t>
+  </si>
+  <si>
+    <t>Why DF for INVOICE_ is disabled?
+Can we use SQL for INVOICECOST?</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +2090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2051,13 +2310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2066,10 +2318,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2355,8 +2625,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T186"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P2:P20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2642,7 @@
     <col min="10" max="10" width="9.5703125" style="27" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="27" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="1"/>
     <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -8004,14 +8274,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="80" t="s">
+      <c r="A1" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>454</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8033,7 +8303,7 @@
         <v>419</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,7 +8314,7 @@
         <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -8056,8 +8326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7215FE98-FC6F-4BEF-87FD-223EF9D6A211}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,10 +8348,10 @@
         <v>428</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8094,8 +8364,8 @@
       <c r="C2" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="75" t="s">
-        <v>443</v>
+      <c r="D2" s="81" t="s">
+        <v>442</v>
       </c>
       <c r="E2" s="76"/>
     </row>
@@ -8109,24 +8379,24 @@
       <c r="C3" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="76"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="87" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="75" t="s">
         <v>444</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8134,35 +8404,35 @@
         <v>430</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75" t="s">
-        <v>446</v>
+        <v>431</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+        <v>432</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="84" t="s">
-        <v>456</v>
+      <c r="B12" s="80" t="s">
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G12" t="s">
         <v>448</v>
-      </c>
-      <c r="G12" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8170,16 +8440,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
         <v>422</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8187,14 +8457,14 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
         <v>422</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8209,7 +8479,7 @@
       </c>
       <c r="E15" s="82"/>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8217,17 +8487,17 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
         <v>422</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -8235,19 +8505,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
         <v>422</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>459</v>
+      <c r="E17" s="79" t="s">
+        <v>458</v>
       </c>
       <c r="F17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8255,16 +8525,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8272,34 +8542,33 @@
         <v>7</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" t="s">
-        <v>450</v>
-      </c>
-      <c r="G19" s="78" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="G19" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>463</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>437</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78" t="s">
-        <v>450</v>
-      </c>
-      <c r="G20" s="78" t="s">
-        <v>450</v>
+      <c r="C20" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" t="s">
+        <v>449</v>
+      </c>
+      <c r="G20" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -8307,16 +8576,16 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>441</v>
       </c>
-      <c r="E21" s="75" t="s">
-        <v>442</v>
-      </c>
       <c r="G21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -8324,14 +8593,14 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>441</v>
-      </c>
-      <c r="E22" s="75"/>
+        <v>440</v>
+      </c>
+      <c r="E22" s="81"/>
       <c r="G22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -8339,14 +8608,14 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
-      </c>
-      <c r="E23" s="75"/>
+        <v>440</v>
+      </c>
+      <c r="E23" s="81"/>
       <c r="G23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -8354,13 +8623,13 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -10038,7 +10307,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10161,4 +10430,1488 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800525C0-0FEC-4E67-90CC-032DF3416846}">
+  <dimension ref="A1:G178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="74" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>505</v>
+      </c>
+      <c r="F40" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G40" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="F41" s="85" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="F43" s="85" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>534</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>516</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="F50" s="85" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D52" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F52" s="84" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" s="84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="F54" s="84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="F56" s="85" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B84" s="74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
+++ b/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4068C7E-C642-41E7-B16E-1A036A783E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CCA485-EF49-4BD0-AD33-8DAF9E773D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="539">
   <si>
     <t>SSIS Package Name</t>
   </si>
@@ -1808,16 +1808,10 @@
 WIP_WA</t>
   </si>
   <si>
-    <t>WOACTIVITY</t>
-  </si>
-  <si>
     <t>LABTRANS</t>
   </si>
   <si>
     <t>WIP_WE</t>
-  </si>
-  <si>
-    <t>SR</t>
   </si>
   <si>
     <t>EQP_JOBR</t>
@@ -1864,6 +1858,9 @@
   <si>
     <t>Why DF for INVOICE_ is disabled?
 Can we use SQL for INVOICECOST?</t>
+  </si>
+  <si>
+    <t>TICKET</t>
   </si>
 </sst>
 </file>
@@ -8390,7 +8387,7 @@
         <v>429</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D4" s="81" t="s">
         <v>443</v>
@@ -10437,7 +10434,7 @@
   <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10981,10 +10978,10 @@
         <v>314</v>
       </c>
       <c r="C43" s="86" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F43" s="85" t="s">
         <v>509</v>
@@ -11032,10 +11029,10 @@
         <v>314</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F46" s="83" t="s">
         <v>515</v>
@@ -11058,7 +11055,7 @@
         <v>516</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -11126,7 +11123,7 @@
         <v>474</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>523</v>
@@ -11146,10 +11143,10 @@
         <v>474</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F52" s="84" t="s">
         <v>526</v>
-      </c>
-      <c r="F52" s="84" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11163,10 +11160,10 @@
         <v>468</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -11180,7 +11177,7 @@
         <v>468</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F54" s="84" t="s">
         <v>463</v>
@@ -11200,10 +11197,10 @@
         <v>475</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11220,7 +11217,7 @@
         <v>513</v>
       </c>
       <c r="F56" s="85" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">

--- a/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
+++ b/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CCA485-EF49-4BD0-AD33-8DAF9E773D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73147F93-43D7-41C2-B8F7-B631DC2619D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Status" sheetId="1" r:id="rId1"/>
@@ -2318,12 +2318,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2337,6 +2331,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2626,28 +2626,28 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="27" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="27" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="27" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>393</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>394</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>401</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>403</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>18</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>375</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
         <v>22</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>23</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>125909</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="51" t="s">
         <v>30</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="P43" s="50"/>
       <c r="Q43" s="51"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Q45" s="38"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>35</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>42</v>
       </c>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>43</v>
       </c>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>118021</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>45</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="S60" s="27"/>
       <c r="T60" s="37"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>47</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>50</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>0.97819444444444448</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>57</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>58</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>59</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="Q72" s="48"/>
     </row>
-    <row r="73" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>61</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>62</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>63</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>65</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>66</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>67</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>68</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>69</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>70</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>149652</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>71</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>72</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>376</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>349769</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>73</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>74</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>75</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>76</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>78</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>49237</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>377</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>79</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>81</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>82</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>83</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>84</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>85</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>86</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>87</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>88</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>89</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>90</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>91</v>
       </c>
@@ -7269,7 +7269,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>93</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>94</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="str">
         <f>COUNTA(B2:B108) &amp; "/" &amp; COUNTA(A2:A108)</f>
@@ -7402,7 +7402,7 @@
       <c r="K109" s="33"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7413,7 +7413,7 @@
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7424,7 +7424,7 @@
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7435,7 +7435,7 @@
       <c r="H112" s="23"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7446,7 +7446,7 @@
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7457,7 +7457,7 @@
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7468,7 +7468,7 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7479,7 +7479,7 @@
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7490,7 +7490,7 @@
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7501,7 +7501,7 @@
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7512,7 +7512,7 @@
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7523,7 +7523,7 @@
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7534,7 +7534,7 @@
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7545,7 +7545,7 @@
       <c r="H122" s="23"/>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7556,7 +7556,7 @@
       <c r="H123" s="23"/>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7567,7 +7567,7 @@
       <c r="H124" s="23"/>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7578,7 +7578,7 @@
       <c r="H125" s="23"/>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7589,7 +7589,7 @@
       <c r="H126" s="23"/>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7600,7 +7600,7 @@
       <c r="H127" s="23"/>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7611,7 +7611,7 @@
       <c r="H128" s="23"/>
       <c r="I128" s="23"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7622,7 +7622,7 @@
       <c r="H129" s="23"/>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7633,7 +7633,7 @@
       <c r="H130" s="23"/>
       <c r="I130" s="23"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7644,7 +7644,7 @@
       <c r="H131" s="23"/>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7655,7 +7655,7 @@
       <c r="H132" s="23"/>
       <c r="I132" s="23"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7666,7 +7666,7 @@
       <c r="H133" s="23"/>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7677,7 +7677,7 @@
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7688,7 +7688,7 @@
       <c r="H135" s="23"/>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7699,7 +7699,7 @@
       <c r="H136" s="23"/>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7710,7 +7710,7 @@
       <c r="H137" s="23"/>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7721,7 +7721,7 @@
       <c r="H138" s="23"/>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7732,7 +7732,7 @@
       <c r="H139" s="23"/>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7743,7 +7743,7 @@
       <c r="H140" s="23"/>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7754,7 +7754,7 @@
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7765,7 +7765,7 @@
       <c r="H142" s="23"/>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7776,7 +7776,7 @@
       <c r="H143" s="23"/>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7787,7 +7787,7 @@
       <c r="H144" s="23"/>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7798,7 +7798,7 @@
       <c r="H145" s="23"/>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7809,7 +7809,7 @@
       <c r="H146" s="23"/>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7820,7 +7820,7 @@
       <c r="H147" s="23"/>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7831,7 +7831,7 @@
       <c r="H148" s="23"/>
       <c r="I148" s="23"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7842,7 +7842,7 @@
       <c r="H149" s="23"/>
       <c r="I149" s="23"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7853,7 +7853,7 @@
       <c r="H150" s="23"/>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7864,7 +7864,7 @@
       <c r="H151" s="23"/>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7875,7 +7875,7 @@
       <c r="H152" s="23"/>
       <c r="I152" s="23"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7886,7 +7886,7 @@
       <c r="H153" s="23"/>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7897,7 +7897,7 @@
       <c r="H154" s="23"/>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7908,7 +7908,7 @@
       <c r="H155" s="23"/>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7919,7 +7919,7 @@
       <c r="H156" s="23"/>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7930,7 +7930,7 @@
       <c r="H157" s="23"/>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7941,7 +7941,7 @@
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7952,7 +7952,7 @@
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7963,7 +7963,7 @@
       <c r="H160" s="23"/>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7974,7 +7974,7 @@
       <c r="H161" s="23"/>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7985,7 +7985,7 @@
       <c r="H162" s="23"/>
       <c r="I162" s="23"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7996,7 +7996,7 @@
       <c r="H163" s="23"/>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8007,7 +8007,7 @@
       <c r="H164" s="23"/>
       <c r="I164" s="23"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8018,7 +8018,7 @@
       <c r="H165" s="23"/>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8029,7 +8029,7 @@
       <c r="H166" s="23"/>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8040,7 +8040,7 @@
       <c r="H167" s="23"/>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8051,7 +8051,7 @@
       <c r="H168" s="23"/>
       <c r="I168" s="23"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8062,7 +8062,7 @@
       <c r="H169" s="23"/>
       <c r="I169" s="23"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8073,7 +8073,7 @@
       <c r="H170" s="23"/>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8084,7 +8084,7 @@
       <c r="H171" s="23"/>
       <c r="I171" s="23"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8095,7 +8095,7 @@
       <c r="H172" s="23"/>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8106,7 +8106,7 @@
       <c r="H173" s="23"/>
       <c r="I173" s="23"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8117,7 +8117,7 @@
       <c r="H174" s="23"/>
       <c r="I174" s="23"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8128,7 +8128,7 @@
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8139,7 +8139,7 @@
       <c r="H176" s="23"/>
       <c r="I176" s="23"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -8150,7 +8150,7 @@
       <c r="H177" s="23"/>
       <c r="I177" s="23"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8161,7 +8161,7 @@
       <c r="H178" s="23"/>
       <c r="I178" s="23"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8172,7 +8172,7 @@
       <c r="H179" s="23"/>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8183,7 +8183,7 @@
       <c r="H180" s="23"/>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8194,7 +8194,7 @@
       <c r="H181" s="23"/>
       <c r="I181" s="23"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8205,7 +8205,7 @@
       <c r="H182" s="23"/>
       <c r="I182" s="23"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8216,7 +8216,7 @@
       <c r="H183" s="23"/>
       <c r="I183" s="23"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8227,7 +8227,7 @@
       <c r="H184" s="23"/>
       <c r="I184" s="23"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -8238,7 +8238,7 @@
       <c r="H185" s="23"/>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8263,14 +8263,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>455</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>1</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="74">
         <v>2</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="74">
         <v>3</v>
       </c>
@@ -8327,17 +8327,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>422</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>423</v>
       </c>
@@ -8361,12 +8361,12 @@
       <c r="C2" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>442</v>
       </c>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>424</v>
       </c>
@@ -8376,46 +8376,46 @@
       <c r="C3" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="76"/>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="86" t="s">
         <v>443</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>430</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="80" t="s">
         <v>455</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -8442,14 +8442,14 @@
       <c r="D13" t="s">
         <v>422</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="87" t="s">
         <v>459</v>
       </c>
       <c r="F13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -8459,12 +8459,12 @@
       <c r="D14" t="s">
         <v>422</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="87"/>
       <c r="F14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -8474,12 +8474,12 @@
       <c r="D15" t="s">
         <v>422</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="87"/>
       <c r="F15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4</v>
       </c>
@@ -8489,7 +8489,7 @@
       <c r="D16" t="s">
         <v>422</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="87"/>
       <c r="F16" t="s">
         <v>449</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>7</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>8</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>9</v>
       </c>
@@ -8578,14 +8578,14 @@
       <c r="D21" t="s">
         <v>440</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="86" t="s">
         <v>441</v>
       </c>
       <c r="G21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10</v>
       </c>
@@ -8595,12 +8595,12 @@
       <c r="D22" t="s">
         <v>440</v>
       </c>
-      <c r="E22" s="81"/>
+      <c r="E22" s="86"/>
       <c r="G22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>11</v>
       </c>
@@ -8610,12 +8610,12 @@
       <c r="D23" t="s">
         <v>440</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="86"/>
       <c r="G23" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>12</v>
       </c>
@@ -8650,13 +8650,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>110</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>112</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>113</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>114</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>115</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>116</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>117</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>118</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>119</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>120</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>121</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>122</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>123</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>124</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>125</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>127</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>128</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>129</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>130</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>131</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>132</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>133</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>134</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>135</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>136</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>137</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>138</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>139</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>140</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>141</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>142</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>143</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>144</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>145</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>146</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>147</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>148</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>149</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>150</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>151</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>152</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>153</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>154</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>155</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>156</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>157</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>158</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>159</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>160</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>161</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>162</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>163</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>164</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>165</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>166</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>167</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>168</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>169</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>170</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>171</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>172</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>173</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>174</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>175</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>176</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>177</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>178</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>179</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>180</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>181</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>182</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>183</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>184</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>185</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>187</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>188</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>189</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>190</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>191</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>192</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>193</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>194</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>195</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>196</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>197</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>198</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>199</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>200</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>201</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>202</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>203</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>204</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>205</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>206</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>207</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>208</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>209</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>210</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>211</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>212</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>213</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>214</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>215</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>216</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>217</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>218</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>219</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>220</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>221</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>222</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>223</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>224</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>225</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>226</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>227</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>228</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>229</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>230</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>231</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>232</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>233</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>234</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>235</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>236</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>237</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>238</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>239</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>240</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>241</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>242</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>243</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>244</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>245</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>246</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>247</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>248</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>249</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>250</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>251</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>252</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>253</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>254</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>255</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>256</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>257</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>258</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>259</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>260</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>261</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>262</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>263</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>264</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>265</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>266</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>267</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>268</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>269</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>270</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>271</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>272</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>273</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>274</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>275</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>276</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>277</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>278</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>279</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>280</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>281</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>282</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>283</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>284</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>285</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>286</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>287</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>288</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>289</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>290</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>291</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>292</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>293</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>294</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>295</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>296</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>297</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>298</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>299</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>300</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>301</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>302</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>303</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>304</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>305</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>306</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>307</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>308</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>309</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>310</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>311</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>312</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B205" s="20">
         <f>COUNTA(B2:B204)/COUNTA(A2:A204)</f>
         <v>1</v>
@@ -10308,16 +10308,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="70.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="36.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="70.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>46</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="18">
         <f>COUNTA(D2:D7)/COUNTA(A2:A7)</f>
         <v>1</v>
@@ -10437,18 +10437,18 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="74" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>393</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>394</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>401</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>403</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>18</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>375</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -10665,11 +10665,11 @@
       <c r="E25" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="82" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>22</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>23</v>
       </c>
@@ -10702,11 +10702,11 @@
       <c r="E27" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="82" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -10719,11 +10719,11 @@
       <c r="E28" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="82" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -10739,11 +10739,11 @@
       <c r="E29" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="82" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -10759,11 +10759,11 @@
       <c r="E30" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="82" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -10776,11 +10776,11 @@
       <c r="E31" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="82" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -10793,11 +10793,11 @@
       <c r="E32" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="82" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
         <v>30</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -10861,11 +10861,11 @@
       <c r="E36" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="82" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -10878,11 +10878,11 @@
       <c r="E37" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="82" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -10895,11 +10895,11 @@
       <c r="E38" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="82" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -10926,17 +10926,17 @@
       <c r="C40" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="83" t="s">
         <v>506</v>
       </c>
       <c r="G40" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -10946,14 +10946,14 @@
       <c r="C41" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="83" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -10963,31 +10963,31 @@
       <c r="C42" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="F42" s="85" t="s">
+      <c r="F42" s="83" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="84" t="s">
         <v>534</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="81" t="s">
         <v>531</v>
       </c>
-      <c r="F43" s="85" t="s">
+      <c r="F43" s="83" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -10997,14 +10997,14 @@
       <c r="C44" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="F44" s="85" t="s">
+      <c r="F44" s="83" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -11014,31 +11014,31 @@
       <c r="C45" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="81" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="81" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -11048,17 +11048,17 @@
       <c r="C47" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="E47" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="F47" s="85" t="s">
+      <c r="F47" s="83" t="s">
         <v>516</v>
       </c>
       <c r="G47" s="70" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -11071,11 +11071,11 @@
       <c r="E48" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="82" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -11088,11 +11088,11 @@
       <c r="E49" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="F49" s="83" t="s">
+      <c r="F49" s="81" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -11105,11 +11105,11 @@
       <c r="E50" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="83" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -11145,11 +11145,11 @@
       <c r="E52" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="82" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -11162,11 +11162,11 @@
       <c r="E53" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="F53" s="84" t="s">
+      <c r="F53" s="82" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -11179,11 +11179,11 @@
       <c r="E54" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="F54" s="84" t="s">
+      <c r="F54" s="82" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -11199,11 +11199,11 @@
       <c r="E55" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="F55" s="83" t="s">
+      <c r="F55" s="81" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -11213,14 +11213,14 @@
       <c r="C56" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="E56" s="81" t="s">
         <v>513</v>
       </c>
-      <c r="F56" s="85" t="s">
+      <c r="F56" s="83" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -11233,11 +11233,11 @@
       <c r="E57" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="81" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>76</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>377</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>82</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>88</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>89</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>91</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>93</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>94</v>
       </c>
@@ -11674,238 +11674,238 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
     </row>
   </sheetData>

--- a/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
+++ b/Integration Services Project2/notes/NEL1902_SSIS_PKG Script_Conversion_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73147F93-43D7-41C2-B8F7-B631DC2619D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A627AADA-3256-48A4-90D7-D3CD0F4835CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Status" sheetId="1" r:id="rId1"/>
@@ -2622,8 +2622,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T186"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10433,7 +10433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800525C0-0FEC-4E67-90CC-032DF3416846}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
